--- a/data/roster.xlsx
+++ b/data/roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/widmelu1/Documents/git/bbs-basel/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schaej17\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C76712A-E3B6-124C-9952-32CF8E1FFA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB09C49C-6EDD-4843-8BC3-95AA5EC8443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77820" yWindow="4260" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 Roster" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
   <si>
     <t>Kaspar</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Treasurer</t>
   </si>
   <si>
-    <t>Xcenda</t>
-  </si>
-  <si>
     <t>achim.guettner@novartis.com</t>
   </si>
   <si>
@@ -159,18 +156,6 @@
     <t>board</t>
   </si>
   <si>
-    <t>Bibiana</t>
-  </si>
-  <si>
-    <t>Blatna</t>
-  </si>
-  <si>
-    <t>bibiana.blatna@novartis.com</t>
-  </si>
-  <si>
-    <t>fbrsorenson@googlemail.com</t>
-  </si>
-  <si>
     <t>giusi.moffa@unibas.ch</t>
   </si>
   <si>
@@ -310,6 +295,45 @@
   </si>
   <si>
     <t>University Hospital of Basel</t>
+  </si>
+  <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>Vogler</t>
+  </si>
+  <si>
+    <t>Viatris</t>
+  </si>
+  <si>
+    <t>Markus.Vogler@viatris.com</t>
+  </si>
+  <si>
+    <t>kristina.weber@roche.com</t>
+  </si>
+  <si>
+    <t>Fred.Sorenson@cencora.com</t>
+  </si>
+  <si>
+    <t>Cencora</t>
+  </si>
+  <si>
+    <t>Charline.Mere@bms.com</t>
+  </si>
+  <si>
+    <t>Mere</t>
+  </si>
+  <si>
+    <t>Charline</t>
+  </si>
+  <si>
+    <t>jack.kuipers@bsse.ethz.ch</t>
+  </si>
+  <si>
+    <t>Baldur.Magnusson@ucb.com</t>
+  </si>
+  <si>
+    <t>marisabacchi@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -691,31 +715,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="101.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="101.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="100.83203125" style="2" customWidth="1"/>
-    <col min="8" max="20" width="101.5" style="2"/>
-    <col min="21" max="16384" width="101.5" style="1"/>
+    <col min="1" max="1" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="100.77734375" style="2" customWidth="1"/>
+    <col min="8" max="20" width="101.44140625" style="2"/>
+    <col min="21" max="16384" width="101.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -724,16 +748,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -741,16 +765,16 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -761,13 +785,13 @@
         <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -775,10 +799,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -787,7 +811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -795,16 +819,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -821,10 +845,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -835,13 +859,13 @@
         <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,16 +873,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -866,19 +890,19 @@
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -886,10 +910,10 @@
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -898,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -915,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -923,30 +947,33 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -954,16 +981,16 @@
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -971,45 +998,45 @@
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="E16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1018,133 +1045,162 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="D24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D25" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="E25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1160,8 +1216,15 @@
     <hyperlink ref="D19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="D20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="D21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D26" r:id="rId7" xr:uid="{66908C88-96C6-45C0-8372-4B5EE9147081}"/>
+    <hyperlink ref="D25" r:id="rId8" xr:uid="{104257D5-4707-4FB8-93B9-28BEF0F71FF7}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{3DEAF3FD-C05E-4A22-99A8-24837B8931F2}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{530544EC-9426-44E0-BB29-E6FEEFED4C0A}"/>
+    <hyperlink ref="D24" r:id="rId11" xr:uid="{39D7A9DF-2FEF-48DC-B88C-BC52F9C79070}"/>
+    <hyperlink ref="D23" r:id="rId12" xr:uid="{F9508FD9-029B-4022-9204-E6F0CED0E479}"/>
+    <hyperlink ref="D13" r:id="rId13" xr:uid="{37E91FF0-D1DA-4157-90CE-2B8A88B0CEDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>